--- a/courses.xlsx
+++ b/courses.xlsx
@@ -19,10 +19,10 @@
     <t>Course_ID</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Description</t>
+    <t>title</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
   <si>
     <t>COSC 111</t>
@@ -132,7 +132,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">

--- a/courses.xlsx
+++ b/courses.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanishalluri/Desktop/Python/Github Projects/NLP-Course-Recommendation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6B572D-2A4A-A248-990D-CE1A73B78F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="37460" yWindow="-1040" windowWidth="28300" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Course_ID</t>
   </si>
@@ -68,14 +74,31 @@
   </si>
   <si>
     <t>Introduction to theories and methods of corporate finance policy used by senior managers and the board of directors to direct the financial operations and strategy of the firm. Policies examined include financial structure, dividend policy, mergers and acquisitions, and risk management.</t>
+  </si>
+  <si>
+    <t>ECON 340</t>
+  </si>
+  <si>
+    <t>International Finance</t>
+  </si>
+  <si>
+    <t>Financial Economics</t>
+  </si>
+  <si>
+    <t>Fundamental topics in financial economics, including net present value, risk and expected return, valuing bonds and equities, the capital asset pricing model, futures and options, and international investing.</t>
+  </si>
+  <si>
+    <t>Exchange rate policy regimes; international financial organizations; the interaction between monetary policy and exchange rate regimes; financial crises.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECON 356 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,13 +110,19 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,26 +152,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -153,10 +187,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -194,71 +228,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -286,7 +320,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -309,11 +343,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -322,13 +356,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -338,7 +372,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -347,7 +381,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -356,7 +390,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -364,10 +398,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -432,22 +466,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="25.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="187.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="231.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -469,7 +506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -480,7 +517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -491,7 +528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -502,7 +539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -511,6 +548,28 @@
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
